--- a/assets/disciplinas/LOT2007.xlsx
+++ b/assets/disciplinas/LOT2007.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Promover aos participantes do curso conhecimentos de bioquímica  abrangendo a organização estrutural e molecular da célulaCompreender a importância dos compostos orgânicos no metabolismo celularUtilizar todos os conhecimentos como pré-requisito para as disciplinas do curso de engenharia Bioquímica</t>
+    <t>427823 - Adriane Maria Ferreira Milagres</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>427823 - Adriane Maria Ferreira Milagres</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>01Química ácido-base/Tampões02Aminoácidos03Proteínas:Estrutura primária04Proteínas:Estrutura tridimensional05Função das proteínas06Enzimas: catálise enzimática07Cinética enzimática, inibição e regulação08Carboidratos09Lipídeos10Membranas Biológicas11Nucleotídeos e ácidos nucleicos</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>01Química ácido-base/Tampões : Constante de dissociação, Curvas de titulação , capacidade tamponante02Aminoácidos:Estrutura dos aminoácidos, classificação e características, Nomenclatura, propriedades ácido-base, estereoquímica,aminoácidos incomuns03Proteínas:Estrutura primáriaPurificação de proteínas, solubilidade, cormatografia, eletroforese. Sequenciamento de proteínas.04Proteínas:Estrutura tridimensionalEstrutura secundária, terciária, quaternária. Dobramento e estabilidade das proteínas.05Função das proteínasMioglobina, hemoglobina, anticorpos06Enzimas: catálise enzimáticaNomenclatura das enzimas, especificidade dos substratos, co-fatores e coenzimas, Energia de ativação e coordenada de reação. Curvas de progresso. Efeito da temperatura e pH sobre a velocidade das reações enzimáticas07Cinética enzimática, inibição e regulação Efeito da concentração de substrato na velocidade das reações enzimáticas. Efeito de inibidores. Inibições reversíveis.  Modelos de inibição competitiva, não competitiva e acompetitiva simples.08CarboidratosMonossacarídeos:classificação, configuração e conformação. Dissacarídeos, Polissacarídeos estruturais:celulose e quitina, Polissacarídeos de reserva:amido e glicogênio, glicosaminoglicanos, Glicoproteínas:oligossacarídeos, paredes celulares bacterianas.09LipídeosClassificação: ácidos graxos, trioacilglicerol, glicerofosfolipídeos, esfingolipídeos, esteróides.10Membranas BiológicasProteínas de membrana:integrais e periféricas, modelo do mosaico fluido, assimetria dos lipídeos, Transporte através da membrana: termodinâmica do transporte,  transporte passivo e ativo.11Nucleotídeos e ácidos nucleicos:Estrutura e função dos nucleotídeos, Estrutura dos ácidos nucleicos, sequenciamento de ácidos nucleicos, endonucleases de restrição, Bibliotecas genômicas,Amplificação do DNA pela reação em cadeia da polimerase.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,26 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação será feita por meio de provas escritas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1 + 2*P2)/3</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. M. Cox, Michael; Nelson, David L.Princípios de Bioquímica de Lehninger - Editora Artmed 6ª Ed. 2014
-2. Voet, D., Voet, J. G., Pratt, C.W. Fundamentos de Bioquímica:a vida em nivel molecular  Editora Artmed, 2014</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -498,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,34 +613,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -664,85 +657,74 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOT2007.xlsx
+++ b/assets/disciplinas/LOT2007.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Promover aos participantes do curso conhecimentos de bioquímica  abrangendo a organização estrutural e molecular da célulaCompreender a importância dos compostos orgânicos no metabolismo celularUtilizar todos os conhecimentos como pré-requisito para as disciplinas do curso de engenharia Bioquímica</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>427823 - Adriane Maria Ferreira Milagres</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>01Química ácido-base/Tampões02Aminoácidos03Proteínas:Estrutura primária04Proteínas:Estrutura tridimensional05Função das proteínas06Enzimas: catálise enzimática07Cinética enzimática, inibição e regulação08Carboidratos09Lipídeos10Membranas Biológicas11Nucleotídeos e ácidos nucleicos</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>01Química ácido-base/Tampões : Constante de dissociação, Curvas de titulação , capacidade tamponante02Aminoácidos:Estrutura dos aminoácidos, classificação e características, Nomenclatura, propriedades ácido-base, estereoquímica,aminoácidos incomuns03Proteínas:Estrutura primáriaPurificação de proteínas, solubilidade, cormatografia, eletroforese. Sequenciamento de proteínas.04Proteínas:Estrutura tridimensionalEstrutura secundária, terciária, quaternária. Dobramento e estabilidade das proteínas.05Função das proteínasMioglobina, hemoglobina, anticorpos06Enzimas: catálise enzimáticaNomenclatura das enzimas, especificidade dos substratos, co-fatores e coenzimas, Energia de ativação e coordenada de reação. Curvas de progresso. Efeito da temperatura e pH sobre a velocidade das reações enzimáticas07Cinética enzimática, inibição e regulação Efeito da concentração de substrato na velocidade das reações enzimáticas. Efeito de inibidores. Inibições reversíveis.  Modelos de inibição competitiva, não competitiva e acompetitiva simples.08CarboidratosMonossacarídeos:classificação, configuração e conformação. Dissacarídeos, Polissacarídeos estruturais:celulose e quitina, Polissacarídeos de reserva:amido e glicogênio, glicosaminoglicanos, Glicoproteínas:oligossacarídeos, paredes celulares bacterianas.09LipídeosClassificação: ácidos graxos, trioacilglicerol, glicerofosfolipídeos, esfingolipídeos, esteróides.10Membranas BiológicasProteínas de membrana:integrais e periféricas, modelo do mosaico fluido, assimetria dos lipídeos, Transporte através da membrana: termodinâmica do transporte,  transporte passivo e ativo.11Nucleotídeos e ácidos nucleicos:Estrutura e função dos nucleotídeos, Estrutura dos ácidos nucleicos, sequenciamento de ácidos nucleicos, endonucleases de restrição, Bibliotecas genômicas,Amplificação do DNA pela reação em cadeia da polimerase.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,26 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação será feita por meio de provas escritas.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será feita por meio de provas escritas.</t>
+    <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1 + 2*P2)/3</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1 + 2*P2)/3</t>
+    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
+    <t>1. M. Cox, Michael; Nelson, David L.Princípios de Bioquímica de Lehninger - Editora Artmed 6ª Ed. 2014
+2. Voet, D., Voet, J. G., Pratt, C.W. Fundamentos de Bioquímica:a vida em nivel molecular  Editora Artmed, 2014</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -488,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -613,37 +623,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -657,74 +664,85 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
